--- a/Data/processed/clasified_spectrograms.xlsx
+++ b/Data/processed/clasified_spectrograms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodla\Desktop\TFG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibm-my.sharepoint.com/personal/jaime_rodriguez_lara_ibm_com/Documents/Escritorio/TFG/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200B46B-E0BA-4B75-9849-1EC86AF04396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="-13275" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,17 +399,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>23809</v>
       </c>
@@ -425,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>24010</v>
       </c>
@@ -433,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>25217</v>
       </c>
@@ -441,7 +439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>25489</v>
       </c>
@@ -449,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>25928</v>
       </c>
@@ -457,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>26195</v>
       </c>
@@ -465,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>27212</v>
       </c>
@@ -473,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>27440</v>
       </c>
@@ -481,7 +479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>27526</v>
       </c>
@@ -489,7 +487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>28242</v>
       </c>
@@ -497,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>28282</v>
       </c>
@@ -505,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>28402</v>
       </c>
@@ -513,7 +511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>29206</v>
       </c>
@@ -521,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>29443</v>
       </c>
@@ -529,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>29569</v>
       </c>
@@ -537,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>29867</v>
       </c>
@@ -545,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>31453</v>
       </c>
@@ -553,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>31749</v>
       </c>
@@ -561,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>32288</v>
       </c>
@@ -569,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>32356</v>
       </c>
@@ -577,7 +575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>32912</v>
       </c>
@@ -585,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>32918</v>
       </c>
@@ -593,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>33200</v>
       </c>
@@ -601,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>33263</v>
       </c>
@@ -609,7 +607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>33703</v>
       </c>
@@ -617,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>33767</v>
       </c>
@@ -625,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>33840</v>
       </c>
@@ -633,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>33856</v>
       </c>
@@ -641,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>34233</v>
       </c>
@@ -649,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>34528</v>
       </c>
@@ -657,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>34569</v>
       </c>
@@ -665,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>34787</v>
       </c>
@@ -673,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>35162</v>
       </c>
@@ -681,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>35603</v>
       </c>
@@ -689,7 +687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35604</v>
       </c>
@@ -697,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>35675</v>
       </c>
@@ -705,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>35728</v>
       </c>
@@ -713,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>36062</v>
       </c>
@@ -721,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>36182</v>
       </c>
@@ -729,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>36554</v>
       </c>
@@ -737,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>36600</v>
       </c>
@@ -745,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>36656</v>
       </c>
@@ -753,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>36737</v>
       </c>
@@ -761,7 +759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>36761</v>
       </c>
@@ -769,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>36804</v>
       </c>
@@ -777,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>36818</v>
       </c>
@@ -785,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>36924</v>
       </c>
@@ -793,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>36944</v>
       </c>
@@ -801,7 +799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>37024</v>
       </c>
@@ -809,7 +807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>37204</v>
       </c>
@@ -817,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>37262</v>
       </c>
@@ -825,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>37268</v>
       </c>
@@ -833,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>37277</v>
       </c>
@@ -841,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>37535</v>
       </c>
@@ -849,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>37537</v>
       </c>
@@ -857,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>37791</v>
       </c>
@@ -865,7 +863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>37830</v>
       </c>
@@ -873,7 +871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>37967</v>
       </c>
@@ -881,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>37986</v>
       </c>
@@ -889,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>38057</v>
       </c>
@@ -897,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>38147</v>
       </c>
@@ -905,7 +903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>38148</v>
       </c>
@@ -913,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>38229</v>
       </c>
@@ -921,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>38339</v>
       </c>
@@ -929,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>38356</v>
       </c>
@@ -937,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>38367</v>
       </c>
@@ -945,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>38397</v>
       </c>
@@ -953,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>38429</v>
       </c>
@@ -961,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>38446</v>
       </c>
@@ -969,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>38564</v>
       </c>
@@ -977,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>38628</v>
       </c>
@@ -985,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>38652</v>
       </c>
@@ -993,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>38703</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>38708</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>38730</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>38940</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>39067</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>39178</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>39224</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>39264</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>39357</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>39373</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>39586</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>39652</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>39704</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>39708</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>39725</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>41481</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>41489</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>41689</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>42172</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>42841</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>43155</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>43193</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>43520</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>43696</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44167</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44272</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44288</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44293</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44398</v>
       </c>
@@ -1225,7 +1223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44521</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44532</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44584</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44620</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44667</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44885</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44904</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44946</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>45124</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>45230</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>45367</v>
       </c>
@@ -1313,7 +1311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>45467</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>45499</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>45726</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>45751</v>
       </c>
@@ -1345,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>47370</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>49559</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>49723</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>49740</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>49851</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>49867</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>50177</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>50339</v>
       </c>
